--- a/AGA307 Programming Assessment 1 Checklist.xlsx
+++ b/AGA307 Programming Assessment 1 Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdunn9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdunn9\Workspace\Game_Dev_II_AGA307\AGA307-Asessment-1-JDunn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECFE2F5-E8A1-4C41-883A-562FF9D8CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61419365-CB8A-4BF3-8EA1-93DC1DAEDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="7740" windowWidth="14535" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -491,11 +491,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,23 +523,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,15 +551,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$47" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$47" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$48" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$48" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$49" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$49" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3300,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="N7" s="11">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Required")</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="N8" s="12">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Required")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Required")</f>
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="N10" s="11">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Challenge")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="N11" s="12">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Challenge")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Challenge")</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3718,11 +3718,11 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="str">
         <f>IF(I25,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F25" s="22"/>
       <c r="I25" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>6</v>
@@ -3738,11 +3738,11 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="str">
         <f>IF(I26,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F26" s="22"/>
       <c r="I26" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>6</v>
@@ -3873,11 +3873,11 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="str">
         <f>IF(I35,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F35" s="22"/>
       <c r="I35" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>6</v>
@@ -3893,11 +3893,11 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="str">
         <f>IF(I36,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F36" s="22"/>
       <c r="I36" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>6</v>
@@ -3913,11 +3913,11 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="str">
         <f>IF(I37,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F37" s="22"/>
       <c r="I37" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>6</v>
@@ -3933,11 +3933,11 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10" t="str">
         <f>IF(I38,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F38" s="22"/>
       <c r="I38" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>6</v>
@@ -3963,11 +3963,11 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10" t="str">
         <f>IF(I40,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F40" s="22"/>
       <c r="I40" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>17</v>
@@ -3983,11 +3983,11 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="str">
         <f>IF(I41,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F41" s="22"/>
       <c r="I41" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>17</v>
@@ -4068,11 +4068,11 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10" t="str">
         <f>IF(I47,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F47" s="22"/>
       <c r="I47" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>6</v>
@@ -4088,11 +4088,11 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="str">
         <f>IF(I48,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F48" s="22"/>
       <c r="I48" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>6</v>
@@ -4108,11 +4108,11 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="str">
         <f>IF(I49,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F49" s="22"/>
       <c r="I49" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>6</v>
@@ -5144,15 +5144,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2062536-d537-4933-9a68-111b11088bac" xsi:nil="true"/>
@@ -5161,6 +5152,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5425,20 +5425,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85646B99-EEC9-4FDA-B8C5-7F37136184D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B067DA8D-FB6D-45DA-B6BB-0E19CF5AFDC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2062536-d537-4933-9a68-111b11088bac"/>
     <ds:schemaRef ds:uri="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85646B99-EEC9-4FDA-B8C5-7F37136184D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/AGA307 Programming Assessment 1 Checklist.xlsx
+++ b/AGA307 Programming Assessment 1 Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdunn9\Workspace\Game_Dev_II_AGA307\AGA307-Asessment-1-JDunn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charm\Workspace\Game Dev II (AGA307)\AGA307-Asessment-1-JDunn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61419365-CB8A-4BF3-8EA1-93DC1DAEDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936838D-937F-47CD-93E5-AEA2A572C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="7740" windowWidth="14535" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="3360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>Task #</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Joshua Dunn</t>
+  </si>
+  <si>
+    <t>Wont Do</t>
+  </si>
+  <si>
+    <t>https://github.com/YoshiiVT/AGA307-Asessment-1-JDunn</t>
   </si>
 </sst>
 </file>
@@ -575,15 +581,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$56" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$56" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$57" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$57" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$58" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$58" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,7 +597,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$61" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$61" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3300,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3402,7 +3408,9 @@
       <c r="M5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
@@ -3448,7 +3456,7 @@
       </c>
       <c r="N7" s="11">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Required")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3465,7 +3473,7 @@
       </c>
       <c r="N8" s="12">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Required")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Required")</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
@@ -3512,7 +3520,7 @@
       </c>
       <c r="N10" s="11">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Challenge")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3522,7 +3530,7 @@
       </c>
       <c r="N11" s="12">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Challenge")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Challenge")</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3655,7 +3663,9 @@
         <f>IF(I20,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I20" s="8" t="b">
         <v>0</v>
       </c>
@@ -3675,7 +3685,9 @@
         <f>IF(I21,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I21" s="8" t="b">
         <v>0</v>
       </c>
@@ -3770,7 +3782,9 @@
         <f>IF(I28,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I28" s="8" t="b">
         <v>0</v>
       </c>
@@ -3790,7 +3804,9 @@
         <f>IF(I29,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I29" s="8" t="b">
         <v>0</v>
       </c>
@@ -3810,7 +3826,9 @@
         <f>IF(I30,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I30" s="8" t="b">
         <v>0</v>
       </c>
@@ -3830,7 +3848,9 @@
         <f>IF(I31,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I31" s="8" t="b">
         <v>0</v>
       </c>
@@ -4025,7 +4045,9 @@
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I43" s="8" t="b">
         <v>0</v>
       </c>
@@ -4140,7 +4162,9 @@
         <f>IF(I51,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F51" s="22"/>
+      <c r="F51" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I51" s="8" t="b">
         <v>0</v>
       </c>
@@ -4160,7 +4184,9 @@
         <f>IF(I52,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I52" s="8" t="b">
         <v>0</v>
       </c>
@@ -4203,11 +4229,11 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="str">
         <f>IF(I56,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F56" s="22"/>
       <c r="I56" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>6</v>
@@ -4223,11 +4249,11 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="str">
         <f>IF(I57,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F57" s="22"/>
       <c r="I57" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>6</v>
@@ -4243,11 +4269,11 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10" t="str">
         <f>IF(I58,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F58" s="22"/>
       <c r="I58" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>6</v>
@@ -4275,7 +4301,9 @@
         <f>IF(I60,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I60" s="8" t="b">
         <v>0</v>
       </c>
@@ -4293,11 +4321,11 @@
       <c r="D61" s="10"/>
       <c r="E61" s="10" t="str">
         <f>IF(I61,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F61" s="22"/>
       <c r="I61" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>17</v>
@@ -5155,15 +5183,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0869939854c6252f0b37a7463c539e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c90a880db59c93dc3dbee13fd572d1d" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -5424,6 +5443,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B067DA8D-FB6D-45DA-B6BB-0E19CF5AFDC6}">
   <ds:schemaRefs>
@@ -5436,14 +5464,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85646B99-EEC9-4FDA-B8C5-7F37136184D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5804B5D-715B-4E9E-8210-199D24F1EF76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5460,4 +5480,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85646B99-EEC9-4FDA-B8C5-7F37136184D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>